--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2238078.501017915</v>
+        <v>-2240076.17403076</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>876881.1115437868</v>
+        <v>857755.0820732189</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.899995955095</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>383.7365479395262</v>
       </c>
       <c r="G2" t="n">
-        <v>251.6629170979868</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>117.2978545574425</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.5106614771179</v>
       </c>
       <c r="V4" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,13 +953,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>219.1367811727223</v>
+        <v>64.97237537407972</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>127.004412707233</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>245.3082439643354</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>162.2262194454204</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>56.49576810820454</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>126.3298627762801</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113169</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>171.2589951202372</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>101.0041688483413</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>96.84207451769305</v>
       </c>
       <c r="V22" t="n">
-        <v>62.742365442944</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,19 +2530,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789518</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789501</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789503</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941874</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789574</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415142</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689352</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941874</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689363</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,19 +4189,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.4021771891623</v>
+        <v>980.8098851099091</v>
       </c>
       <c r="C2" t="n">
-        <v>847.4021771891623</v>
+        <v>980.8098851099091</v>
       </c>
       <c r="D2" t="n">
-        <v>847.4021771891623</v>
+        <v>980.8098851099091</v>
       </c>
       <c r="E2" t="n">
-        <v>461.6139245909181</v>
+        <v>595.021632511665</v>
       </c>
       <c r="F2" t="n">
-        <v>461.6139245909181</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>1367.409725174031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1138.210253911481</v>
+        <v>1367.409725174031</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,34 +4492,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273829</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>818.8658378359718</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1948.373665146019</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="W5" t="n">
-        <v>1595.605009875905</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.605009875905</v>
+        <v>1554.45204121794</v>
       </c>
       <c r="Y5" t="n">
-        <v>1205.465677900094</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
         <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2533.284222891535</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2314.649555863598</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2314.649555863598</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1983.586668520027</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1983.586668520027</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1610.120910258947</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1112.426648284106</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5027,37 +5027,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5127,10 +5127,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>798.2070652606851</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N12" t="n">
-        <v>1128.069692924718</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O12" t="n">
         <v>1797.533454227377</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5236,13 +5236,13 @@
         <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,7 +5300,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>404.5372247402476</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N15" t="n">
         <v>1128.069692924718</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,25 +5534,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,19 +5589,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N18" t="n">
         <v>1128.069692924718</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5835,10 +5835,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>327.180197328635</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>1095.548343721096</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N21" t="n">
         <v>1128.069692924718</v>
@@ -5941,7 +5941,7 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
         <v>835.416391538794</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
         <v>323.6581146605669</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6142,13 +6142,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L25" t="n">
         <v>709.8489468649691</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,28 +6291,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028583</v>
+        <v>343.9822193667499</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>343.9822193667499</v>
       </c>
       <c r="N27" t="n">
         <v>1128.069692924718</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6461,7 +6461,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N30" t="n">
         <v>1128.069692924718</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6643,7 +6643,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6710,25 +6710,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,31 +6765,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M33" t="n">
-        <v>744.3684618792639</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N33" t="n">
-        <v>1548.780040143415</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
         <v>1797.533454227377</v>
@@ -6841,28 +6841,28 @@
         <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6581146605669</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N36" t="n">
         <v>1128.069692924718</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010325</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>343.9822193667499</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>343.9822193667499</v>
       </c>
       <c r="N39" t="n">
         <v>1128.069692924718</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7412,22 +7412,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7494,10 +7494,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6581146605669</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
         <v>1128.069692924718</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,19 +7658,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,19 +7722,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N45" t="n">
         <v>1128.069692924718</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -8778,10 +8778,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>299.0195957116584</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9246,10 +9246,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>367.2826860427847</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9483,13 +9483,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>164.1915597637587</v>
+        <v>396.4775252873441</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>370.8623401849284</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849285</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>343.2638758979964</v>
+        <v>382.8402146937904</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849285</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>367.2826860427843</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11379,10 +11379,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>23.13949780218528</v>
       </c>
       <c r="G2" t="n">
-        <v>162.1212529228082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>6.771212764859854</v>
       </c>
       <c r="V4" t="n">
-        <v>168.5393373498798</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>115.2640032163538</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1420986615188</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>185.233183550236</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24181,10 +24181,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>189.3952778808843</v>
       </c>
       <c r="V22" t="n">
-        <v>189.395277880884</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892134</v>
+        <v>90335.72423892136</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="J4" t="n">
         <v>23206.58093189634</v>
@@ -26445,19 +26445,19 @@
         <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189639</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-763162.6815168753</v>
+        <v>-763376.0935067538</v>
       </c>
       <c r="C6" t="n">
         <v>-221918.2172440285</v>
@@ -26528,31 +26528,31 @@
         <v>-221918.2172440285</v>
       </c>
       <c r="E6" t="n">
-        <v>-617935.1561161885</v>
+        <v>-618032.6152421605</v>
       </c>
       <c r="F6" t="n">
-        <v>-92775.1196392925</v>
+        <v>-92872.57876526465</v>
       </c>
       <c r="G6" t="n">
-        <v>-92775.1196392925</v>
+        <v>-92872.57876526465</v>
       </c>
       <c r="H6" t="n">
-        <v>-92775.1196392925</v>
+        <v>-92872.5787652647</v>
       </c>
       <c r="I6" t="n">
-        <v>-175427.1988556343</v>
+        <v>-175427.1988556342</v>
       </c>
       <c r="J6" t="n">
-        <v>-297344.9059445146</v>
+        <v>-297344.9059445147</v>
       </c>
       <c r="K6" t="n">
         <v>-120921.6867519217</v>
       </c>
       <c r="L6" t="n">
-        <v>-120921.6867519217</v>
+        <v>-120921.6867519218</v>
       </c>
       <c r="M6" t="n">
-        <v>-255722.7019857589</v>
+        <v>-255722.701985759</v>
       </c>
       <c r="N6" t="n">
         <v>-175427.1988556343</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,25 +26923,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.83384570838558</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>252.4332461210265</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>108.6154772974126</v>
+        <v>262.7798830960552</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>85.14112624278593</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>85.14112624278596</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>109.3747976563476</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>12.18949336355112</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>229.7861061337732</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>160.1931355603109</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31367,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31601,13 +31601,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,31 +31832,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>384.4996507784824</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>382.84021469379</v>
+        <v>369.693561916275</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32321,10 +32321,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>370.8623401849284</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32558,7 +32558,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,10 +32789,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041479</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,19 +33023,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>369.6935619162748</v>
+        <v>444.0068867882324</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,19 +33260,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33500,19 +33500,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33743,10 +33743,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>164.191559763759</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,19 +33971,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>444.0068867882324</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34211,7 +34211,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34220,7 +34220,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34451,13 +34451,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>708.070680606464</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>581.3832979527665</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>730.8408769540102</v>
+        <v>717.6942241764953</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35747,7 +35747,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="M18" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>32.84984768042544</v>
+        <v>265.1358132040107</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303321</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>717.694224176495</v>
+        <v>792.0075490484526</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,10 +36999,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>653.6882529484627</v>
+        <v>693.2645917442566</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>32.84984768042567</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>792.0075490484526</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
